--- a/DB/Exports/Reportes/Reportes 26-01-24.xlsx
+++ b/DB/Exports/Reportes/Reportes 26-01-24.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25/01/2024 15:59:02</t>
+          <t>26/01/2024 13:37:20</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -468,10 +468,79 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25/01/2024 15:59:04</t>
+          <t>26/01/2024 13:37:21</t>
         </is>
       </c>
       <c r="E2" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sadsa</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:54:01</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>101</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:54:03</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sdascxccx</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:54:05</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12321</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:54:11</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:54:13</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>108</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26/01/2024 13:54:25</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>101</v>
       </c>
     </row>
